--- a/2024/shuffle-architecute/Teste10/content/results/metrics_4_3.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_4_3.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_24</t>
+          <t>model_4_3_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9854655635371472</v>
+        <v>0.9070639904641785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7605966992255377</v>
+        <v>0.7336866615292135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8678056740461726</v>
+        <v>0.7586926060678276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9926100545637715</v>
+        <v>-0.2770202240659823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9513247840003903</v>
+        <v>0.5121418636465404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06099791824817657</v>
+        <v>0.3900325298309326</v>
       </c>
       <c r="H2" t="n">
-        <v>1.60089099407196</v>
+        <v>1.78083860874176</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3496366143226624</v>
+        <v>0.8069599270820618</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03108590096235275</v>
+        <v>1.430255889892578</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1903612464666367</v>
+        <v>1.118607640266418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_23</t>
+          <t>model_4_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9855533145900477</v>
+        <v>0.9076822632837217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.760516315591634</v>
+        <v>0.7335962838033946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8686537208099208</v>
+        <v>0.7725330043754199</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9926527587845606</v>
+        <v>-0.2612032487399059</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9516345118186857</v>
+        <v>0.5260976630923866</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06062965095043182</v>
+        <v>0.3874378204345703</v>
       </c>
       <c r="H3" t="n">
-        <v>1.601428508758545</v>
+        <v>1.781442999839783</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3473936319351196</v>
+        <v>0.7606760263442993</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03090626373887062</v>
+        <v>1.412541031837463</v>
       </c>
       <c r="K3" t="n">
-        <v>0.18914994597435</v>
+        <v>1.086608409881592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_22</t>
+          <t>model_4_3_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9856503269424218</v>
+        <v>0.9060673088994587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.760426131840956</v>
+        <v>0.7335464523756625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8695964657821118</v>
+        <v>0.7445881356161965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9927004225640993</v>
+        <v>-0.2926668434704323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.95197893255926</v>
+        <v>0.4980349301893436</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06022251024842262</v>
+        <v>0.3942154347896576</v>
       </c>
       <c r="H4" t="n">
-        <v>1.602031469345093</v>
+        <v>1.781776070594788</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3449001908302307</v>
+        <v>0.8541268706321716</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03070576675236225</v>
+        <v>1.447780013084412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1878029704093933</v>
+        <v>1.150953412055969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_21</t>
+          <t>model_4_3_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9857575253015186</v>
+        <v>0.9048084596947171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7603247927008189</v>
+        <v>0.7332340324010483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8706448336205311</v>
+        <v>0.7304488870771113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9927535603757903</v>
+        <v>-0.3077033987928548</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9523620078910131</v>
+        <v>0.4840516084182602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05977261066436768</v>
+        <v>0.3994985222816467</v>
       </c>
       <c r="H5" t="n">
-        <v>1.602709054946899</v>
+        <v>1.783865332603455</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3421274125576019</v>
+        <v>0.9014101624488831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03048224188387394</v>
+        <v>1.46462094783783</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1863048374652863</v>
+        <v>1.183015704154968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_20</t>
+          <t>model_4_3_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9858758530977798</v>
+        <v>0.9077775327348814</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7602107856136296</v>
+        <v>0.7332073821394264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8718101718843023</v>
+        <v>0.7858551371187528</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9928128577004343</v>
+        <v>-0.2458713191126294</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9527879538639803</v>
+        <v>0.5395571547581236</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05927602201700211</v>
+        <v>0.3870379626750946</v>
       </c>
       <c r="H6" t="n">
-        <v>1.603471517562866</v>
+        <v>1.784043550491333</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3390452265739441</v>
+        <v>0.7161253094673157</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03023280762135983</v>
+        <v>1.395369172096252</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1846390217542648</v>
+        <v>1.055747270584106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_19</t>
+          <t>model_4_3_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9860064319305891</v>
+        <v>0.9033792329657623</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7600823764338636</v>
+        <v>0.732798226367539</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8731063014539437</v>
+        <v>0.7164721987061087</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9928790786677748</v>
+        <v>-0.3218588256495876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9532618482190476</v>
+        <v>0.4704022880099736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05872801318764687</v>
+        <v>0.4054967164993286</v>
       </c>
       <c r="H7" t="n">
-        <v>1.60433030128479</v>
+        <v>1.786779642105103</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3356171548366547</v>
+        <v>0.9481498003005981</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02995424903929234</v>
+        <v>1.480474829673767</v>
       </c>
       <c r="K7" t="n">
-        <v>0.18278568983078</v>
+        <v>1.214312076568604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_18</t>
+          <t>model_4_3_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9861503897774642</v>
+        <v>0.9018507682016255</v>
       </c>
       <c r="C8" t="n">
-        <v>0.759937512224781</v>
+        <v>0.7322787962542177</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8745478650681939</v>
+        <v>0.7028215271064601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.992953052808813</v>
+        <v>-0.3349913893773513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.953789089877923</v>
+        <v>0.457240111005018</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05812384933233261</v>
+        <v>0.4119113087654114</v>
       </c>
       <c r="H8" t="n">
-        <v>1.60529899597168</v>
+        <v>1.790252923965454</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3318043947219849</v>
+        <v>0.9937992095947266</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02964307554066181</v>
+        <v>1.495183229446411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1807237267494202</v>
+        <v>1.244491577148438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_17</t>
+          <t>model_4_3_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9863089170854624</v>
+        <v>0.9002772532999048</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7597738522140507</v>
+        <v>0.7317073449401568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8761510354460678</v>
+        <v>0.6896248757332524</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9930357675716641</v>
+        <v>-0.3470528422487877</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9543756796292656</v>
+        <v>0.4446708787535482</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0574585422873497</v>
+        <v>0.4185150563716888</v>
       </c>
       <c r="H9" t="n">
-        <v>1.606393337249756</v>
+        <v>1.794074296951294</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3275642096996307</v>
+        <v>1.037930369377136</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02929513528943062</v>
+        <v>1.508692026138306</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1784296631813049</v>
+        <v>1.273311614990234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_16</t>
+          <t>model_4_3_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9864833458903404</v>
+        <v>0.8986998048635461</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7595886051514248</v>
+        <v>0.7311084834194794</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8779346357465209</v>
+        <v>0.6769807844066911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9931282791024879</v>
+        <v>-0.3580481751787155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9550285453122791</v>
+        <v>0.432765084706518</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05672650784254074</v>
+        <v>0.4251351952552795</v>
       </c>
       <c r="H10" t="n">
-        <v>1.607632160186768</v>
+        <v>1.798078894615173</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3228468298912048</v>
+        <v>1.080213665962219</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02890598215162754</v>
+        <v>1.52100670337677</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1758764088153839</v>
+        <v>1.300610303878784</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_15</t>
+          <t>model_4_3_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9866749590484637</v>
+        <v>0.8971484791581056</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7593785035755315</v>
+        <v>0.7305009439882307</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8799186546600885</v>
+        <v>0.664958484825096</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9932317519141671</v>
+        <v>-0.3680215663281614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9557550824737456</v>
+        <v>0.4215622448937393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05592234060168266</v>
+        <v>0.4316458106040955</v>
       </c>
       <c r="H11" t="n">
-        <v>1.609037041664124</v>
+        <v>1.802141427993774</v>
       </c>
       <c r="I11" t="n">
-        <v>0.317599356174469</v>
+        <v>1.120417714118958</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02847072295844555</v>
+        <v>1.532176852226257</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1730350255966187</v>
+        <v>1.326297283172607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_14</t>
+          <t>model_4_3_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9868851760916766</v>
+        <v>0.8956452037127989</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7591397405279084</v>
+        <v>0.7298987111539961</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8821260454121617</v>
+        <v>0.653602635282729</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9933476605939503</v>
+        <v>-0.3770309342574294</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9565638380513376</v>
+        <v>0.4110808985527487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05504010617733002</v>
+        <v>0.4379547536373138</v>
       </c>
       <c r="H12" t="n">
-        <v>1.610633611679077</v>
+        <v>1.806168556213379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3117611110210419</v>
+        <v>1.158393025398254</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02798315323889256</v>
+        <v>1.542267322540283</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1698721200227737</v>
+        <v>1.350329875946045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_13</t>
+          <t>model_4_3_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.987115453897184</v>
+        <v>0.8942048982367282</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7588676438867851</v>
+        <v>0.729311933396777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8845827102695163</v>
+        <v>0.6429388877203805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9934775340084453</v>
+        <v>-0.3851538485263228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9574643932504447</v>
+        <v>0.4013204904226665</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05407368019223213</v>
+        <v>0.4439994096755981</v>
       </c>
       <c r="H13" t="n">
-        <v>1.61245322227478</v>
+        <v>1.810092449188232</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3052635490894318</v>
+        <v>1.194053769111633</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02743683755397797</v>
+        <v>1.55136501789093</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1663501858711243</v>
+        <v>1.372709512710571</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9873671535973992</v>
+        <v>0.8928377758066058</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7585568015773486</v>
+        <v>0.7287477180450439</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8873166480472747</v>
+        <v>0.6329748341351135</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9936231124389144</v>
+        <v>-0.3924604047955464</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9584671527628356</v>
+        <v>0.3922699570641496</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05301735550165176</v>
+        <v>0.4497368931770325</v>
       </c>
       <c r="H14" t="n">
-        <v>1.614531755447388</v>
+        <v>1.813865423202515</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2980326414108276</v>
+        <v>1.227374792098999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0268244594335556</v>
+        <v>1.559548139572144</v>
       </c>
       <c r="K14" t="n">
-        <v>0.162428542971611</v>
+        <v>1.393461465835571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_11</t>
+          <t>model_4_3_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9876416666613022</v>
+        <v>0.8915496805013133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7582006569049959</v>
+        <v>0.7282108375982668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8903598087478279</v>
+        <v>0.6237053883888075</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9937863886423536</v>
+        <v>-0.3990261735980416</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9595839922994399</v>
+        <v>0.3839068330644846</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05186527594923973</v>
+        <v>0.4551427960395813</v>
       </c>
       <c r="H15" t="n">
-        <v>1.616913318634033</v>
+        <v>1.817455410957336</v>
       </c>
       <c r="I15" t="n">
-        <v>0.289983868598938</v>
+        <v>1.258372783660889</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02613763511180878</v>
+        <v>1.566901922225952</v>
       </c>
       <c r="K15" t="n">
-        <v>0.158060759305954</v>
+        <v>1.412637233734131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_10</t>
+          <t>model_4_3_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9879401703607416</v>
+        <v>0.8903433996731255</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7577913187305113</v>
+        <v>0.7277041438213236</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8937468428151645</v>
+        <v>0.6151146377550302</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9939695689317675</v>
+        <v>-0.4049229502662708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9608278170854393</v>
+        <v>0.3762019032943044</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05061252415180206</v>
+        <v>0.4602053165435791</v>
       </c>
       <c r="H16" t="n">
-        <v>1.619650602340698</v>
+        <v>1.820843577384949</v>
       </c>
       <c r="I16" t="n">
-        <v>0.281025618314743</v>
+        <v>1.2871013879776</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02536708489060402</v>
+        <v>1.573506236076355</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1531963646411896</v>
+        <v>1.430303812026978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_9</t>
+          <t>model_4_3_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9882636521539642</v>
+        <v>0.8892198281840228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7573192159106282</v>
+        <v>0.7272292196104416</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8975165047025071</v>
+        <v>0.6071803530867761</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9941750477532062</v>
+        <v>-0.4102141382112781</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9622130176032496</v>
+        <v>0.3691238027250089</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04925493896007538</v>
+        <v>0.4649206399917603</v>
       </c>
       <c r="H17" t="n">
-        <v>1.622807502746582</v>
+        <v>1.824019432067871</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2710553705692291</v>
+        <v>1.313634395599365</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02450273744761944</v>
+        <v>1.579432368278503</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1477790474891663</v>
+        <v>1.44653308391571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_8</t>
+          <t>model_4_3_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.988612691521654</v>
+        <v>0.8881776020647757</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7567727081860747</v>
+        <v>0.7267865501462395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9017112743386424</v>
+        <v>0.599873006496774</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9944053719607758</v>
+        <v>-0.414961890205007</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9637553283169039</v>
+        <v>0.362635328402737</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04779009521007538</v>
+        <v>0.4692946672439575</v>
       </c>
       <c r="H18" t="n">
-        <v>1.62646210193634</v>
+        <v>1.826979637145996</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2599607408046722</v>
+        <v>1.33807098865509</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02353387512266636</v>
+        <v>1.584749817848206</v>
       </c>
       <c r="K18" t="n">
-        <v>0.141747310757637</v>
+        <v>1.461410522460938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_7</t>
+          <t>model_4_3_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9889871915635569</v>
+        <v>0.8872145532844963</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7561375460215524</v>
+        <v>0.7263758250201533</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9063765264665927</v>
+        <v>0.5931610160391541</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9946631645732601</v>
+        <v>-0.4192218197734598</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9654715029031063</v>
+        <v>0.3567002869607155</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0462183989584446</v>
+        <v>0.4733363687992096</v>
       </c>
       <c r="H19" t="n">
-        <v>1.630709409713745</v>
+        <v>1.829726099967957</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2476217746734619</v>
+        <v>1.360516786575317</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02244946733117104</v>
+        <v>1.589520931243896</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1350356191396713</v>
+        <v>1.475018858909607</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_6</t>
+          <t>model_4_3_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9893861060007423</v>
+        <v>0.8863274366314066</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7553962606643739</v>
+        <v>0.725996225215753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9115606776555294</v>
+        <v>0.5870094659154079</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9949508323997531</v>
+        <v>-0.4230440655704026</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9673792076592248</v>
+        <v>0.3512809250226595</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04454423859715462</v>
+        <v>0.47705939412117</v>
       </c>
       <c r="H20" t="n">
-        <v>1.635666370391846</v>
+        <v>1.83226466178894</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2339103817939758</v>
+        <v>1.381088256835938</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0212393868714571</v>
+        <v>1.593801736831665</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1275748759508133</v>
+        <v>1.487444877624512</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_5</t>
+          <t>model_4_3_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.989806816877369</v>
+        <v>0.8855126408241822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7545272815910288</v>
+        <v>0.7256466597123273</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9173125265295378</v>
+        <v>0.581383557301288</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9952703255398181</v>
+        <v>-0.4264723467457028</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9694959919162268</v>
+        <v>0.3463409935110165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04277860745787621</v>
+        <v>0.480478972196579</v>
       </c>
       <c r="H21" t="n">
-        <v>1.641477108001709</v>
+        <v>1.834601998329163</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2186974883079529</v>
+        <v>1.399901866912842</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01989543810486794</v>
+        <v>1.597641468048096</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1192964613437653</v>
+        <v>1.498771667480469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_4</t>
+          <t>model_4_3_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9902444002643537</v>
+        <v>0.8847658956335605</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7535040012349865</v>
+        <v>0.7253255834529704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9236789434797928</v>
+        <v>0.5762464186758001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9956222887918298</v>
+        <v>-0.4295487326699869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9718380509796293</v>
+        <v>0.3418435351096741</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04094216227531433</v>
+        <v>0.4836128652095795</v>
       </c>
       <c r="H22" t="n">
-        <v>1.648319959640503</v>
+        <v>1.836748957633972</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2018591463565826</v>
+        <v>1.417081236839294</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01841489784419537</v>
+        <v>1.601086974143982</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1101370304822922</v>
+        <v>1.509083986282349</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_3</t>
+          <t>model_4_3_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9906902955761253</v>
+        <v>0.8840830878271211</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7522935262520456</v>
+        <v>0.7250314100335082</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9306976239455516</v>
+        <v>0.5715641423349378</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9960050058600239</v>
+        <v>-0.4323091193464026</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9744172115661219</v>
+        <v>0.3377548834941229</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03907083347439766</v>
+        <v>0.4864784479141235</v>
       </c>
       <c r="H23" t="n">
-        <v>1.656414270401001</v>
+        <v>1.838716268539429</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1832956671714783</v>
+        <v>1.43273913860321</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01680499315261841</v>
+        <v>1.604178667068481</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1000503301620483</v>
+        <v>1.518458724021912</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_2</t>
+          <t>model_4_3_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9911305894799414</v>
+        <v>0.8834596288129991</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7508551660537286</v>
+        <v>0.7247624104581969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9383886465851192</v>
+        <v>0.5673010980596156</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9964125670966482</v>
+        <v>-0.4347881321819884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9772370844185732</v>
+        <v>0.3340405965625766</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03722301870584488</v>
+        <v>0.489095002412796</v>
       </c>
       <c r="H24" t="n">
-        <v>1.666032671928406</v>
+        <v>1.84051501750946</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1629539281129837</v>
+        <v>1.446995377540588</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0150905828922987</v>
+        <v>1.606955170631409</v>
       </c>
       <c r="K24" t="n">
-        <v>0.08902224898338318</v>
+        <v>1.526975154876709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_1</t>
+          <t>model_4_3_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9915431838315309</v>
+        <v>0.8828915158373196</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7491386338195496</v>
+        <v>0.7245169733659851</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9467384854221159</v>
+        <v>0.5634253920764034</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9968318627088477</v>
+        <v>-0.437012367214658</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9802860378742129</v>
+        <v>0.3306710628485666</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0354914516210556</v>
+        <v>0.4914792776107788</v>
       </c>
       <c r="H25" t="n">
-        <v>1.677511215209961</v>
+        <v>1.842156410217285</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1408697068691254</v>
+        <v>1.459956169128418</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01332681067287922</v>
+        <v>1.609446167945862</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07709826529026031</v>
+        <v>1.534701108932495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_3_0</t>
+          <t>model_4_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9918939096585822</v>
+        <v>0.8823744053466802</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7470820077766598</v>
+        <v>0.7242933074650391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9556761356388619</v>
+        <v>0.5599055018648535</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9972382448149902</v>
+        <v>-0.4390106623194379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9835268188469306</v>
+        <v>0.32761607739678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03401952609419823</v>
+        <v>0.4936493933200836</v>
       </c>
       <c r="H26" t="n">
-        <v>1.691263794898987</v>
+        <v>1.843652009963989</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1172307878732681</v>
+        <v>1.471727013587952</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01161735877394676</v>
+        <v>1.611684203147888</v>
       </c>
       <c r="K26" t="n">
-        <v>0.064424067735672</v>
+        <v>1.541705846786499</v>
       </c>
     </row>
   </sheetData>
